--- a/backend/templates/template.xlsx
+++ b/backend/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\pywallet3\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE794B-006A-43DC-951B-2ADA3882DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC02002A-2BEF-437C-B2A1-AC08E8B14652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="4080" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="4230" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>GOGL34</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Código</t>
   </si>
@@ -389,100 +368,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>28.75</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>68.42</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>32.1</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>45.3</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>190.38</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>420.21</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>58.75</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
